--- a/Importación_GUIA/5. Importación_Transacción_GUIA.xlsx
+++ b/Importación_GUIA/5. Importación_Transacción_GUIA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\inventarioV2\Importacion_Inventario_GUIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\inventarioV2\Importación_GUIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,7 +90,7 @@
     <t>TM-2022-000001</t>
   </si>
   <si>
-    <t>Prestamo</t>
+    <t>Préstamo</t>
   </si>
 </sst>
 </file>

--- a/Importación_GUIA/5. Importación_Transacción_GUIA.xlsx
+++ b/Importación_GUIA/5. Importación_Transacción_GUIA.xlsx
@@ -90,7 +90,7 @@
     <t>TM-2022-000001</t>
   </si>
   <si>
-    <t>Préstamo</t>
+    <t>Prestamo</t>
   </si>
 </sst>
 </file>

--- a/Importación_GUIA/5. Importación_Transacción_GUIA.xlsx
+++ b/Importación_GUIA/5. Importación_Transacción_GUIA.xlsx
@@ -549,19 +549,14 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="6" customWidth="1"/>
-    <col min="2" max="4" width="15.7109375" style="6"/>
-    <col min="5" max="5" width="20.7109375" style="6" customWidth="1"/>
-    <col min="6" max="8" width="15.7109375" style="6"/>
-    <col min="9" max="9" width="20.7109375" style="6" customWidth="1"/>
-    <col min="10" max="12" width="15.7109375" style="6"/>
-    <col min="13" max="13" width="15.7109375" style="10"/>
-    <col min="14" max="14" width="20.7109375" style="6" customWidth="1"/>
+    <col min="1" max="12" width="15.7109375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="15.7109375" style="6"/>
   </cols>
   <sheetData>
